--- a/rrd/AppData/DefineTeamSetup_account.xlsx
+++ b/rrd/AppData/DefineTeamSetup_account.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RRD_Anshu\rrd\AppData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\RRD_Anshu\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DF8DA0-AE95-4549-BBD7-42165D3953F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B6E656-CCF9-4EF6-A839-C1D19C83452A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keyword" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="TeamNewCriteria" sheetId="3" r:id="rId3"/>
     <sheet name="RRDUser" sheetId="4" r:id="rId4"/>
     <sheet name="Accountconfig9" sheetId="5" r:id="rId5"/>
+    <sheet name="Accountconfig10" sheetId="6" r:id="rId6"/>
+    <sheet name="Accountconfig11" sheetId="7" r:id="rId7"/>
+    <sheet name="Accountconfig12" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="69">
   <si>
     <t>Team</t>
   </si>
@@ -227,9 +230,6 @@
   </si>
   <si>
     <t>EditMaxIntakeLimit</t>
-  </si>
-  <si>
-    <t>EditTeamopencase</t>
   </si>
   <si>
     <t>EditRecordAssignlimit</t>
@@ -691,10 +691,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDC9A9E-5D88-421C-962D-84F597F9530E}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,11 +703,9 @@
     <col min="2" max="2" width="20.109375" customWidth="1"/>
     <col min="3" max="3" width="25.5546875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -720,10 +718,8 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -737,7 +733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.1</v>
       </c>
@@ -751,7 +747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3.1</v>
       </c>
@@ -765,7 +761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4.0999999999999996</v>
       </c>
@@ -779,7 +775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5.0999999999999996</v>
       </c>
@@ -793,7 +789,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6.1</v>
       </c>
@@ -807,7 +803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7.1</v>
       </c>
@@ -821,7 +817,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8.1</v>
       </c>
@@ -834,14 +830,8 @@
       <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9.1</v>
       </c>
@@ -855,7 +845,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10.1</v>
       </c>
@@ -869,7 +859,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11.1</v>
       </c>
@@ -883,7 +873,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12.1</v>
       </c>
@@ -1154,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E83EB04-A337-4659-8733-EF9B069BDA8D}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1170,11 +1160,9 @@
     <col min="6" max="6" width="22.88671875" customWidth="1"/>
     <col min="7" max="7" width="21.33203125" customWidth="1"/>
     <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="24.44140625" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1199,10 +1187,8 @@
       <c r="H1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>43</v>
       </c>
@@ -1228,7 +1214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>44</v>
       </c>
@@ -1254,7 +1240,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>64</v>
       </c>
@@ -1280,7 +1266,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>45</v>
       </c>
@@ -1306,7 +1292,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -1332,7 +1318,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
@@ -1358,7 +1344,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
@@ -1384,7 +1370,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
@@ -1410,7 +1396,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
@@ -1436,7 +1422,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
@@ -1462,7 +1448,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
@@ -1488,7 +1474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
@@ -1514,7 +1500,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
@@ -1539,14 +1525,8 @@
       <c r="H14" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1572,7 +1552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>64</v>
       </c>
@@ -1736,22 +1716,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7620EC-CA64-454C-B4E2-122B2A119CF9}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.21875" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1764,25 +1743,153 @@
       <c r="D1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AD27C2-71F9-4064-B10D-4DB3D23BFC56}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F37B5CF-F928-4316-81D2-1715BED573B2}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87ACE74D-C5EF-4FFD-89E5-F6E42EDCCB47}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/rrd/AppData/DefineTeamSetup_account.xlsx
+++ b/rrd/AppData/DefineTeamSetup_account.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\RRD_Anshu\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B6E656-CCF9-4EF6-A839-C1D19C83452A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE499BE4-F987-449E-BD9F-A3D5DA6E60E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keyword" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,7 @@
     <sheet name="TeamNewCriteria" sheetId="3" r:id="rId3"/>
     <sheet name="RRDUser" sheetId="4" r:id="rId4"/>
     <sheet name="Accountconfig9" sheetId="5" r:id="rId5"/>
-    <sheet name="Accountconfig10" sheetId="6" r:id="rId6"/>
-    <sheet name="Accountconfig11" sheetId="7" r:id="rId7"/>
-    <sheet name="Accountconfig12" sheetId="8" r:id="rId8"/>
+    <sheet name="Accountconfig11" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="69">
   <si>
     <t>Team</t>
   </si>
@@ -694,7 +692,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,7 +896,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1146,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E83EB04-A337-4659-8733-EF9B069BDA8D}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1764,60 +1762,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AD27C2-71F9-4064-B10D-4DB3D23BFC56}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F37B5CF-F928-4316-81D2-1715BED573B2}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1846,50 +1795,25 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87ACE74D-C5EF-4FFD-89E5-F6E42EDCCB47}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>25</v>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
